--- a/TestData/TMTI0055401_VerifyNewJobTypesInJobTypeColumnOnOpportunityEngagementSearchpage.xlsx
+++ b/TestData/TMTI0055401_VerifyNewJobTypesInJobTypeColumnOnOpportunityEngagementSearchpage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF567B22-A9C4-492D-AAA4-B19B58C1491B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C6C5B6-AF32-427F-964F-A988FA31AB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -86,19 +86,19 @@
     <t>Lender Education</t>
   </si>
   <si>
-    <t>TestOppLE</t>
-  </si>
-  <si>
-    <t>127476</t>
-  </si>
-  <si>
     <t>Engagements</t>
   </si>
   <si>
-    <t>Project Leo - Lender Edu</t>
-  </si>
-  <si>
-    <t>122602</t>
+    <t>Project ACE - Lender Edu</t>
+  </si>
+  <si>
+    <t>127133</t>
+  </si>
+  <si>
+    <t>Project Apollo - Lender Education</t>
+  </si>
+  <si>
+    <t>124379</t>
   </si>
 </sst>
 </file>
@@ -443,13 +443,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,12 +478,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -510,17 +510,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -538,24 +538,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -569,16 +569,16 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,18 +586,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>133775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="2"/>
     </row>
   </sheetData>
@@ -611,17 +614,17 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,7 +660,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -684,17 +687,17 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
